--- a/public/users.xlsx
+++ b/public/users.xlsx
@@ -1,84 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="510" yWindow="585" windowWidth="14055" windowHeight="4050"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
+  <calcPr calcId="144525" forceFullCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>rreynolds@example.com</t>
-  </si>
-  <si>
-    <t>/images/demo/avatar-80.png</t>
-  </si>
-  <si>
-    <t>2018-12-13 17:45:07</t>
+    <t>dsa</t>
   </si>
   <si>
     <t>asd</t>
   </si>
   <si>
-    <t>asd@asd.asd</t>
-  </si>
-  <si>
-    <t>resources/assets/admin/images/4asd.png</t>
-  </si>
-  <si>
-    <t>2018-12-15 19:26:34</t>
-  </si>
-  <si>
-    <t>2018-12-15 19:26:35</t>
-  </si>
-  <si>
-    <t>hos</t>
-  </si>
-  <si>
-    <t>assd@asd.asd</t>
-  </si>
-  <si>
-    <t>C:\xampp\tmp\phpC80E.tmp</t>
-  </si>
-  <si>
-    <t>2018-12-22 11:00:27</t>
-  </si>
-  <si>
-    <t>asssd@asd.asd</t>
-  </si>
-  <si>
-    <t>resources/assets/admin/images/6.jpg</t>
-  </si>
-  <si>
-    <t>2018-12-22 11:01:22</t>
-  </si>
-  <si>
-    <t>2018-12-22 11:01:23</t>
+    <t>dsa2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -89,28 +41,36 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -400,119 +360,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C2">
         <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>